--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1AD5B-0876-4E45-8A73-2E2560166C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D70B5-5316-4949-9AE1-F2C15DE7D39F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="0" windowWidth="12600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -744,10 +744,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="80">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -786,17 +786,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -969,42 +969,42 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
+    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="40" customHeight="1">
+    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>

--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D70B5-5316-4949-9AE1-F2C15DE7D39F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1394AF-25A3-47AF-ACAD-63F9A8943A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -372,6 +372,20 @@
     </rPh>
     <rPh sb="36" eb="40">
       <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スクラム</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3スクラム</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -787,7 +801,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -862,7 +876,9 @@
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -877,7 +893,9 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
@@ -892,7 +910,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -907,7 +927,9 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -967,7 +989,9 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1"/>

--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1394AF-25A3-47AF-ACAD-63F9A8943A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C923E-91E1-EF4B-AA9F-72D1F4BF9DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -387,6 +387,17 @@
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スプリント</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -758,10 +769,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -781,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
+    <row r="3" spans="1:2" ht="80">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,23 +809,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -831,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:6" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -848,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:6" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -863,7 +874,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -877,10 +888,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -896,8 +907,11 @@
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -913,8 +927,11 @@
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -931,7 +948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:6" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -946,7 +963,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -961,7 +978,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -976,7 +993,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -993,42 +1010,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:6" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:6" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:6" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="40" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
